--- a/NodeJs-GraphQl.xlsx
+++ b/NodeJs-GraphQl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NodeJs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09A685-10EE-40F9-B50B-B6DFB397AFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44EFBB-FB40-431E-8B5B-84C8721E4B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <r>
       <t>app</t>
@@ -3127,6 +3127,91 @@
   </si>
   <si>
     <t>create Server</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>server</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3279,7 +3364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3318,7 +3403,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3667,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7053131C-6F31-4E25-8EE4-5ABAFEAD4641}">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,21 +4066,33 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
